--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="C24" s="18" t="n"/>
       <c r="D24" s="7" t="n">
-        <v>617.965</v>
+        <v>1170.84</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="20">
@@ -918,7 +918,7 @@
       </c>
       <c r="C25" s="18" t="n"/>
       <c r="D25" s="8" t="n">
-        <v>638.478</v>
+        <v>1209.705</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="20">
@@ -934,7 +934,7 @@
       </c>
       <c r="C26" s="18" t="n"/>
       <c r="D26" s="7" t="n">
-        <v>656.423</v>
+        <v>1243.706</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="20">
@@ -950,7 +950,7 @@
       </c>
       <c r="C27" s="18" t="n"/>
       <c r="D27" s="8" t="n">
-        <v>700.783</v>
+        <v>1327.753</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="20">
@@ -966,7 +966,7 @@
       </c>
       <c r="C28" s="18" t="n"/>
       <c r="D28" s="7" t="n">
-        <v>853.096</v>
+        <v>1616.336</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C29" s="18" t="n"/>
       <c r="D29" s="8" t="n">
-        <v>1000.023</v>
+        <v>1894.714</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="20">
@@ -998,7 +998,7 @@
       </c>
       <c r="C30" s="18" t="n"/>
       <c r="D30" s="8" t="n">
-        <v>1143.613</v>
+        <v>2166.772</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="20">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C31" s="18" t="n"/>
       <c r="D31" s="7" t="n">
-        <v>1235.924</v>
+        <v>2341.67</v>
       </c>
       <c r="E31" s="2" t="n"/>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C36" s="18" t="n"/>
       <c r="D36" s="7" t="n">
-        <v>791.045</v>
+        <v>1498.77</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="20">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C37" s="18" t="n"/>
       <c r="D37" s="8" t="n">
-        <v>868.736</v>
+        <v>1645.97</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="20">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C38" s="18" t="n"/>
       <c r="D38" s="7" t="n">
-        <v>920.0170000000001</v>
+        <v>1743.129</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="20">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C39" s="18" t="n"/>
       <c r="D39" s="8" t="n">
-        <v>975.664</v>
+        <v>1848.562</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" s="20">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C40" s="18" t="n"/>
       <c r="D40" s="7" t="n">
-        <v>1089.769</v>
+        <v>2064.753</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" s="20">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="8" t="n">
-        <v>1415.417</v>
+        <v>2681.749</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" s="20">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C42" s="18" t="n"/>
       <c r="D42" s="7" t="n">
-        <v>1430.801</v>
+        <v>2710.896</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="20">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C43" s="18" t="n"/>
       <c r="D43" s="8" t="n">
-        <v>1466.7</v>
+        <v>2778.914</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="20">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C44" s="18" t="n"/>
       <c r="D44" s="7" t="n">
-        <v>1871.839</v>
+        <v>3546.519</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" s="20">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C45" s="18" t="n"/>
       <c r="D45" s="8" t="n">
-        <v>2197.487</v>
+        <v>4163.515</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="20">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C46" s="18" t="n"/>
       <c r="D46" s="7" t="n">
-        <v>2692.371</v>
+        <v>5101.156</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" s="20">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C47" s="18" t="n"/>
       <c r="D47" s="7" t="n">
-        <v>3082.117</v>
+        <v>5839.596</v>
       </c>
     </row>
     <row r="49" ht="23.25" customHeight="1" s="20">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C52" s="18" t="n"/>
       <c r="D52" s="7" t="n">
-        <v>843.61</v>
+        <v>1598.362</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="20">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C53" s="18" t="n"/>
       <c r="D53" s="8" t="n">
-        <v>1015.406</v>
+        <v>1923.861</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="20">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C54" s="18" t="n"/>
       <c r="D54" s="7" t="n">
-        <v>1115.411</v>
+        <v>2113.336</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="20">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C55" s="18" t="n"/>
       <c r="D55" s="8" t="n">
-        <v>1215.414</v>
+        <v>2302.81</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="20">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C56" s="18" t="n"/>
       <c r="D56" s="7" t="n">
-        <v>1320.543</v>
+        <v>2501.996</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="20">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C57" s="18" t="n"/>
       <c r="D57" s="8" t="n">
-        <v>1466.7</v>
+        <v>2778.914</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="20">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C58" s="18" t="n"/>
       <c r="D58" s="7" t="n">
-        <v>1576.961</v>
+        <v>2987.821</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="20">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C59" s="18" t="n"/>
       <c r="D59" s="8" t="n">
-        <v>1710.297</v>
+        <v>3240.451</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="20">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C60" s="18" t="n"/>
       <c r="D60" s="7" t="n">
-        <v>2527.749</v>
+        <v>4789.252</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="20">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C61" s="18" t="n"/>
       <c r="D61" s="8" t="n">
-        <v>2735.962</v>
+        <v>5183.748</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="20">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C62" s="18" t="n"/>
       <c r="D62" s="7" t="n">
-        <v>3043.659</v>
+        <v>5766.733</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" s="20">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C63" s="18" t="n"/>
       <c r="D63" s="7" t="n">
-        <v>3651.367</v>
+        <v>6918.14</v>
       </c>
     </row>
     <row r="65" ht="23.25" customHeight="1" s="20">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C68" s="18" t="n"/>
       <c r="D68" s="7" t="n">
-        <v>1013.358</v>
+        <v>1919.981</v>
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" s="20">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C69" s="18" t="n"/>
       <c r="D69" s="8" t="n">
-        <v>1165.152</v>
+        <v>2207.581</v>
       </c>
     </row>
     <row r="70" ht="18" customHeight="1" s="20">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C70" s="18" t="n"/>
       <c r="D70" s="7" t="n">
-        <v>1215.414</v>
+        <v>2302.81</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="1" s="20">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C71" s="18" t="n"/>
       <c r="D71" s="8" t="n">
-        <v>1320.543</v>
+        <v>2501.996</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" s="20">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C72" s="18" t="n"/>
       <c r="D72" s="7" t="n">
-        <v>1503.37</v>
+        <v>2848.392</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" s="20">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C73" s="18" t="n"/>
       <c r="D73" s="8" t="n">
-        <v>1625.677</v>
+        <v>3080.122</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="1" s="20">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C74" s="18" t="n"/>
       <c r="D74" s="7" t="n">
-        <v>1782.092</v>
+        <v>3376.478</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="20">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C75" s="18" t="n"/>
       <c r="D75" s="8" t="n">
-        <v>1980.042</v>
+        <v>3751.527</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="20">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C76" s="18" t="n"/>
       <c r="D76" s="7" t="n">
-        <v>2676.983</v>
+        <v>5072.003</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="20">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C77" s="18" t="n"/>
       <c r="D77" s="8" t="n">
-        <v>3138.533</v>
+        <v>5946.487</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" s="20">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C78" s="18" t="n"/>
       <c r="D78" s="7" t="n">
-        <v>3674.439</v>
+        <v>6961.853</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="20">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C79" s="18" t="n"/>
       <c r="D79" s="7" t="n">
-        <v>3961.624</v>
+        <v>7505.974</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="20">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C85" s="18" t="n"/>
       <c r="D85" s="7" t="n">
-        <v>1416.697</v>
+        <v>2684.175</v>
       </c>
     </row>
     <row r="86" ht="18" customHeight="1" s="20">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C86" s="18" t="n"/>
       <c r="D86" s="8" t="n">
-        <v>1646.193</v>
+        <v>3118.994</v>
       </c>
     </row>
     <row r="87" ht="18" customHeight="1" s="20">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C87" s="18" t="n"/>
       <c r="D87" s="7" t="n">
-        <v>1836.453</v>
+        <v>3479.474</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" s="20">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="C88" s="18" t="n"/>
       <c r="D88" s="8" t="n">
-        <v>2023.122</v>
+        <v>3833.151</v>
       </c>
     </row>
     <row r="89" ht="18" customHeight="1" s="20">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C89" s="18" t="n"/>
       <c r="D89" s="7" t="n">
-        <v>2425.697</v>
+        <v>4595.898</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" s="20">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C90" s="18" t="n"/>
       <c r="D90" s="8" t="n">
-        <v>2539.032</v>
+        <v>4810.629</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="20">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="C91" s="18" t="n"/>
       <c r="D91" s="7" t="n">
-        <v>2994.939</v>
+        <v>5674.423</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" s="20">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C92" s="18" t="n"/>
       <c r="D92" s="8" t="n">
-        <v>3359.049</v>
+        <v>6364.291</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" s="20">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C93" s="18" t="n"/>
       <c r="D93" s="7" t="n">
-        <v>3974.448</v>
+        <v>7530.27</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" s="20">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="C94" s="18" t="n"/>
       <c r="D94" s="8" t="n">
-        <v>4484.714</v>
+        <v>8497.058000000001</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" s="20">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C95" s="18" t="n"/>
       <c r="D95" s="7" t="n">
-        <v>5479.608</v>
+        <v>10382.055</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" s="20">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C101" s="18" t="n"/>
       <c r="D101" s="7" t="n">
-        <v>2143.638</v>
+        <v>4061.489</v>
       </c>
     </row>
     <row r="102" ht="18" customHeight="1" s="20">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C102" s="18" t="n"/>
       <c r="D102" s="8" t="n">
-        <v>2425.697</v>
+        <v>4595.898</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1" s="20">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C103" s="18" t="n"/>
       <c r="D103" s="7" t="n">
-        <v>2738.521</v>
+        <v>5188.597</v>
       </c>
     </row>
     <row r="104" ht="18" customHeight="1" s="20">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C104" s="18" t="n"/>
       <c r="D104" s="8" t="n">
-        <v>3246.228</v>
+        <v>6150.535</v>
       </c>
     </row>
     <row r="105" ht="18" customHeight="1" s="20">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C105" s="18" t="n"/>
       <c r="D105" s="7" t="n">
-        <v>3282.125</v>
+        <v>6218.547</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="1" s="20">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="C106" s="18" t="n"/>
       <c r="D106" s="8" t="n">
-        <v>4146.244</v>
+        <v>7855.767</v>
       </c>
     </row>
     <row r="107" ht="18" customHeight="1" s="20">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="C107" s="18" t="n"/>
       <c r="D107" s="7" t="n">
-        <v>4666.772</v>
+        <v>8841.995999999999</v>
       </c>
     </row>
     <row r="108" ht="18" customHeight="1" s="20">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C108" s="18" t="n"/>
       <c r="D108" s="8" t="n">
-        <v>5269.353</v>
+        <v>9983.691000000001</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="1" s="20">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C109" s="18" t="n"/>
       <c r="D109" s="7" t="n">
-        <v>6102.7</v>
+        <v>11562.608</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" s="20">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C115" s="18" t="n"/>
       <c r="D115" s="7" t="n">
-        <v>3075.712</v>
+        <v>5827.463</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" s="20">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C116" s="18" t="n"/>
       <c r="D116" s="8" t="n">
-        <v>3400.078</v>
+        <v>6442.029</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" s="20">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C117" s="18" t="n"/>
       <c r="D117" s="7" t="n">
-        <v>3948.807</v>
+        <v>7481.691</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1" s="20">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="C118" s="18" t="n"/>
       <c r="D118" s="8" t="n">
-        <v>4100.091</v>
+        <v>7768.324</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" s="20">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C119" s="18" t="n"/>
       <c r="D119" s="7" t="n">
-        <v>4615.485</v>
+        <v>8744.825999999999</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="1" s="20">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C120" s="18" t="n"/>
       <c r="D120" s="8" t="n">
-        <v>5379.607</v>
+        <v>10192.585</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" s="20">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C121" s="18" t="n"/>
       <c r="D121" s="7" t="n">
-        <v>6282.192</v>
+        <v>11902.687</v>
       </c>
     </row>
     <row r="122" ht="18" customHeight="1" s="20">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C122" s="18" t="n"/>
       <c r="D122" s="8" t="n">
-        <v>7102.722</v>
+        <v>13457.321</v>
       </c>
     </row>
     <row r="123" ht="18" customHeight="1" s="20">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C123" s="18" t="n"/>
       <c r="D123" s="7" t="n">
-        <v>7718.12</v>
+        <v>14623.299</v>
       </c>
     </row>
     <row r="124" ht="18" customHeight="1" s="20">
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
     <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C80" s="18" t="n"/>
       <c r="D80" s="7" t="n">
-        <v>5675.54</v>
+        <v>4043.966</v>
       </c>
     </row>
     <row r="82" ht="23.25" customHeight="1" s="20">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C96" s="18" t="n"/>
       <c r="D96" s="7" t="n">
-        <v>10597.23</v>
+        <v>7550.794</v>
       </c>
     </row>
     <row r="98" ht="23.25" customHeight="1" s="20">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C110" s="18" t="n"/>
       <c r="D110" s="8" t="n">
-        <v>10915.22</v>
+        <v>7777.371</v>
       </c>
     </row>
     <row r="112" ht="23.25" customHeight="1" s="20">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C124" s="18" t="n"/>
       <c r="D124" s="8" t="n">
-        <v>14623.29</v>
+        <v>10419.458</v>
       </c>
     </row>
     <row r="127" ht="20.25" customHeight="1" s="20">

--- a/server/LISTAS/ma/PARKER.xlsx
+++ b/server/LISTAS/ma/PARKER.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45415</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="C24" s="18" t="n"/>
       <c r="D24" s="7" t="n">
-        <v>617.965</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="20">
@@ -918,7 +918,7 @@
       </c>
       <c r="C25" s="18" t="n"/>
       <c r="D25" s="8" t="n">
-        <v>638.478</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="20">
@@ -934,7 +934,7 @@
       </c>
       <c r="C26" s="18" t="n"/>
       <c r="D26" s="7" t="n">
-        <v>656.423</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="20">
@@ -950,7 +950,7 @@
       </c>
       <c r="C27" s="18" t="n"/>
       <c r="D27" s="8" t="n">
-        <v>700.783</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="20">
@@ -966,7 +966,7 @@
       </c>
       <c r="C28" s="18" t="n"/>
       <c r="D28" s="7" t="n">
-        <v>853.096</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C29" s="18" t="n"/>
       <c r="D29" s="8" t="n">
-        <v>1000.023</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="20">
@@ -998,7 +998,7 @@
       </c>
       <c r="C30" s="18" t="n"/>
       <c r="D30" s="8" t="n">
-        <v>1143.613</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="20">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C31" s="18" t="n"/>
       <c r="D31" s="7" t="n">
-        <v>1235.924</v>
+        <v>2470</v>
       </c>
       <c r="E31" s="2" t="n"/>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C36" s="18" t="n"/>
       <c r="D36" s="7" t="n">
-        <v>791.045</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="20">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C37" s="18" t="n"/>
       <c r="D37" s="8" t="n">
-        <v>868.736</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="20">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C38" s="18" t="n"/>
       <c r="D38" s="7" t="n">
-        <v>920.0170000000001</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="20">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C39" s="18" t="n"/>
       <c r="D39" s="8" t="n">
-        <v>975.664</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" s="20">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C40" s="18" t="n"/>
       <c r="D40" s="7" t="n">
-        <v>1089.769</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" s="20">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="8" t="n">
-        <v>1415.417</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" s="20">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C42" s="18" t="n"/>
       <c r="D42" s="7" t="n">
-        <v>1430.801</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="20">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C43" s="18" t="n"/>
       <c r="D43" s="8" t="n">
-        <v>1466.7</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="20">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C44" s="18" t="n"/>
       <c r="D44" s="7" t="n">
-        <v>1871.839</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" s="20">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C45" s="18" t="n"/>
       <c r="D45" s="8" t="n">
-        <v>2197.487</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="20">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C46" s="18" t="n"/>
       <c r="D46" s="7" t="n">
-        <v>2692.371</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" s="20">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C47" s="18" t="n"/>
       <c r="D47" s="7" t="n">
-        <v>3082.117</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="49" ht="23.25" customHeight="1" s="20">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C52" s="18" t="n"/>
       <c r="D52" s="7" t="n">
-        <v>843.61</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="20">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C53" s="18" t="n"/>
       <c r="D53" s="8" t="n">
-        <v>1015.406</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="20">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C54" s="18" t="n"/>
       <c r="D54" s="7" t="n">
-        <v>1115.411</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="20">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C55" s="18" t="n"/>
       <c r="D55" s="8" t="n">
-        <v>1215.414</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="20">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C56" s="18" t="n"/>
       <c r="D56" s="7" t="n">
-        <v>1320.543</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="20">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C57" s="18" t="n"/>
       <c r="D57" s="8" t="n">
-        <v>1466.7</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="20">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C58" s="18" t="n"/>
       <c r="D58" s="7" t="n">
-        <v>1576.961</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="20">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C59" s="18" t="n"/>
       <c r="D59" s="8" t="n">
-        <v>1710.297</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="20">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C60" s="18" t="n"/>
       <c r="D60" s="7" t="n">
-        <v>2527.749</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="20">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C61" s="18" t="n"/>
       <c r="D61" s="8" t="n">
-        <v>2735.962</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="20">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C62" s="18" t="n"/>
       <c r="D62" s="7" t="n">
-        <v>3043.659</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" s="20">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C63" s="18" t="n"/>
       <c r="D63" s="7" t="n">
-        <v>3651.367</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="65" ht="23.25" customHeight="1" s="20">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C68" s="18" t="n"/>
       <c r="D68" s="7" t="n">
-        <v>1013.358</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" s="20">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C69" s="18" t="n"/>
       <c r="D69" s="8" t="n">
-        <v>1165.152</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="70" ht="18" customHeight="1" s="20">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C70" s="18" t="n"/>
       <c r="D70" s="7" t="n">
-        <v>1215.414</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="1" s="20">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C71" s="18" t="n"/>
       <c r="D71" s="8" t="n">
-        <v>1320.543</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" s="20">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C72" s="18" t="n"/>
       <c r="D72" s="7" t="n">
-        <v>1503.37</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" s="20">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C73" s="18" t="n"/>
       <c r="D73" s="8" t="n">
-        <v>1625.677</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="1" s="20">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C74" s="18" t="n"/>
       <c r="D74" s="7" t="n">
-        <v>1782.092</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="20">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C75" s="18" t="n"/>
       <c r="D75" s="8" t="n">
-        <v>1980.042</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="20">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C76" s="18" t="n"/>
       <c r="D76" s="7" t="n">
-        <v>2676.983</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="20">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C77" s="18" t="n"/>
       <c r="D77" s="8" t="n">
-        <v>3138.533</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" s="20">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C78" s="18" t="n"/>
       <c r="D78" s="7" t="n">
-        <v>3674.439</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="20">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C79" s="18" t="n"/>
       <c r="D79" s="7" t="n">
-        <v>3961.624</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="20">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C80" s="18" t="n"/>
       <c r="D80" s="7" t="n">
-        <v>4043.966</v>
+        <v>8274.946</v>
       </c>
     </row>
     <row r="82" ht="23.25" customHeight="1" s="20">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C85" s="18" t="n"/>
       <c r="D85" s="7" t="n">
-        <v>1416.697</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="86" ht="18" customHeight="1" s="20">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C86" s="18" t="n"/>
       <c r="D86" s="8" t="n">
-        <v>1646.193</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="87" ht="18" customHeight="1" s="20">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C87" s="18" t="n"/>
       <c r="D87" s="7" t="n">
-        <v>1836.453</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" s="20">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="C88" s="18" t="n"/>
       <c r="D88" s="8" t="n">
-        <v>2023.122</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="89" ht="18" customHeight="1" s="20">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C89" s="18" t="n"/>
       <c r="D89" s="7" t="n">
-        <v>2425.697</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" s="20">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C90" s="18" t="n"/>
       <c r="D90" s="8" t="n">
-        <v>2539.032</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="20">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="C91" s="18" t="n"/>
       <c r="D91" s="7" t="n">
-        <v>2994.939</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" s="20">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C92" s="18" t="n"/>
       <c r="D92" s="8" t="n">
-        <v>3359.049</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" s="20">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C93" s="18" t="n"/>
       <c r="D93" s="7" t="n">
-        <v>3974.448</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" s="20">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="C94" s="18" t="n"/>
       <c r="D94" s="8" t="n">
-        <v>4484.714</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" s="20">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C95" s="18" t="n"/>
       <c r="D95" s="7" t="n">
-        <v>5479.608</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" s="20">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C96" s="18" t="n"/>
       <c r="D96" s="7" t="n">
-        <v>7550.794</v>
+        <v>15450.772</v>
       </c>
     </row>
     <row r="98" ht="23.25" customHeight="1" s="20">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C101" s="18" t="n"/>
       <c r="D101" s="7" t="n">
-        <v>2143.638</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="102" ht="18" customHeight="1" s="20">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C102" s="18" t="n"/>
       <c r="D102" s="8" t="n">
-        <v>2425.697</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1" s="20">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C103" s="18" t="n"/>
       <c r="D103" s="7" t="n">
-        <v>2738.521</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="104" ht="18" customHeight="1" s="20">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C104" s="18" t="n"/>
       <c r="D104" s="8" t="n">
-        <v>3246.228</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="105" ht="18" customHeight="1" s="20">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C105" s="18" t="n"/>
       <c r="D105" s="7" t="n">
-        <v>3282.125</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="1" s="20">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="C106" s="18" t="n"/>
       <c r="D106" s="8" t="n">
-        <v>4146.244</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="107" ht="18" customHeight="1" s="20">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="C107" s="18" t="n"/>
       <c r="D107" s="7" t="n">
-        <v>4666.772</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="108" ht="18" customHeight="1" s="20">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C108" s="18" t="n"/>
       <c r="D108" s="8" t="n">
-        <v>5269.353</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="1" s="20">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C109" s="18" t="n"/>
       <c r="D109" s="7" t="n">
-        <v>6102.7</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" s="20">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C110" s="18" t="n"/>
       <c r="D110" s="8" t="n">
-        <v>7777.371</v>
+        <v>15914.403</v>
       </c>
     </row>
     <row r="112" ht="23.25" customHeight="1" s="20">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C115" s="18" t="n"/>
       <c r="D115" s="7" t="n">
-        <v>3075.712</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" s="20">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C116" s="18" t="n"/>
       <c r="D116" s="8" t="n">
-        <v>3400.078</v>
+        <v>6945</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" s="20">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C117" s="18" t="n"/>
       <c r="D117" s="7" t="n">
-        <v>3948.807</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1" s="20">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="C118" s="18" t="n"/>
       <c r="D118" s="8" t="n">
-        <v>4100.091</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" s="20">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C119" s="18" t="n"/>
       <c r="D119" s="7" t="n">
-        <v>4615.485</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="1" s="20">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C120" s="18" t="n"/>
       <c r="D120" s="8" t="n">
-        <v>5379.607</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" s="20">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C121" s="18" t="n"/>
       <c r="D121" s="7" t="n">
-        <v>6282.192</v>
+        <v>12150</v>
       </c>
     </row>
     <row r="122" ht="18" customHeight="1" s="20">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C122" s="18" t="n"/>
       <c r="D122" s="8" t="n">
-        <v>7102.722</v>
+        <v>13540</v>
       </c>
     </row>
     <row r="123" ht="18" customHeight="1" s="20">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C123" s="18" t="n"/>
       <c r="D123" s="7" t="n">
-        <v>7718.12</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="124" ht="18" customHeight="1" s="20">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C124" s="18" t="n"/>
       <c r="D124" s="8" t="n">
-        <v>10419.458</v>
+        <v>21320.762</v>
       </c>
     </row>
     <row r="127" ht="20.25" customHeight="1" s="20">
@@ -2303,102 +2303,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
     <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
